--- a/results/pvalue_OFFSIDES_all_target_AUROC.xlsx
+++ b/results/pvalue_OFFSIDES_all_target_AUROC.xlsx
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>35.2</t>
+          <t>16.634</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>32.287</t>
+          <t>18.975</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>29.839</t>
+          <t>18.091</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>37.836</t>
+          <t>16.309</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.001</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-14.609</t>
+          <t>9.233</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
